--- a/type_hint/cau_3.xlsx
+++ b/type_hint/cau_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chuyendephattrienweb1.git\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A135D5-2066-4965-AC18-10F3284334C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BCBFA-E4F4-498D-A708-4578EA64F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>X</t>
   </si>
@@ -59,84 +59,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Method Name</t>
-  </si>
-  <si>
-    <t>method_A_A</t>
-  </si>
-  <si>
-    <t>method_A_B</t>
-  </si>
-  <si>
-    <t>method_A_C</t>
-  </si>
-  <si>
-    <t>method_A_I</t>
-  </si>
-  <si>
-    <t>method_A_Null</t>
-  </si>
-  <si>
-    <t>method_B_A</t>
-  </si>
-  <si>
-    <t>method_B_B</t>
-  </si>
-  <si>
-    <t>method_B_C</t>
-  </si>
-  <si>
-    <t>method_B_I</t>
-  </si>
-  <si>
-    <t>method_B_Null</t>
-  </si>
-  <si>
-    <t>method_C_A</t>
-  </si>
-  <si>
-    <t>method_C_B</t>
-  </si>
-  <si>
-    <t>method_C_C</t>
-  </si>
-  <si>
-    <t>method_C_I</t>
-  </si>
-  <si>
-    <t>method_C_Null</t>
-  </si>
-  <si>
-    <t>method_I_A</t>
-  </si>
-  <si>
-    <t>method_I_B</t>
-  </si>
-  <si>
-    <t>method_I_C</t>
-  </si>
-  <si>
-    <t>method_I_I</t>
-  </si>
-  <si>
-    <t>method_I_Null</t>
-  </si>
-  <si>
-    <t>method_Null_A</t>
-  </si>
-  <si>
-    <t>method_Null_B</t>
-  </si>
-  <si>
-    <t>method_Null_C</t>
-  </si>
-  <si>
-    <t>method_Null_I</t>
-  </si>
-  <si>
-    <t>method_Null_Null</t>
   </si>
 </sst>
 </file>
@@ -210,11 +132,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +442,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,122 +456,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -678,402 +600,194 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/type_hint/cau_3.xlsx
+++ b/type_hint/cau_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chuyendephattrienweb1.git\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BCBFA-E4F4-498D-A708-4578EA64F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F941B-F52E-4FF5-82F2-85EF38C46EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>X</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Return\Type</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -442,7 +436,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,100 +473,100 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
+      <c r="B5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
